--- a/homeworks/CF_HW_6_20_Answer.xlsx
+++ b/homeworks/CF_HW_6_20_Answer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B62BB4-A4BB-5340-84DF-3E15707DC9E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFEB2FC-03E2-9F44-B726-14FF1F55B2AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20500" yWindow="460" windowWidth="26260" windowHeight="27840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -337,9 +337,6 @@
     <t>Question 8</t>
   </si>
   <si>
-    <t>(d)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dividends are not an expense in the income statement.  They reduce retained earnings.   Thus, </t>
   </si>
   <si>
@@ -479,6 +476,9 @@
   </si>
   <si>
     <t>Office and Groups</t>
+  </si>
+  <si>
+    <t>(e)</t>
   </si>
 </sst>
 </file>
@@ -1023,13 +1023,13 @@
   </cellStyles>
   <dxfs count="60">
     <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -8802,7 +8802,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C16AF6AB-B5D4-7B4D-B4B9-82FF66A79491}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C16AF6AB-B5D4-7B4D-B4B9-82FF66A79491}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
   <location ref="B2:D44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9098,7 +9098,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7495E70-010C-8145-A4D0-001D6F99A1EA}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7495E70-010C-8145-A4D0-001D6F99A1EA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="B2:F44" firstHeaderRow="0" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9389,7 +9389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2213BE48-5712-EA47-896B-11A4E92B87AF}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2213BE48-5712-EA47-896B-11A4E92B87AF}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="H3:I36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -9615,7 +9615,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9064670B-CAE1-664B-8FF0-E1A9EBEB2044}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9064670B-CAE1-664B-8FF0-E1A9EBEB2044}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
   <location ref="B3:E45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9931,7 +9931,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8624E65-B12E-F24B-ADD4-E511061AC05F}" name="PivotTable6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8624E65-B12E-F24B-ADD4-E511061AC05F}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10105,7 +10105,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B579022D-1ADB-9D4F-A857-5A32D276A2F0}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Office and Groups">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B579022D-1ADB-9D4F-A857-5A32D276A2F0}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Office and Groups">
   <location ref="B47:C89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10324,7 +10324,7 @@
     <dataField name=" Profit" fld="12" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
     <format dxfId="1">
@@ -10336,7 +10336,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10359,7 +10359,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03BF4379-F7AD-5643-B512-443AC26281C3}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Associate">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03BF4379-F7AD-5643-B512-443AC26281C3}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Associate">
   <location ref="B8:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10975,8 +10975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7308F52-8E89-BF44-9C41-F5679E61FB3C}">
   <dimension ref="B1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10999,7 +10999,7 @@
     </row>
     <row r="3" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="9"/>
@@ -11164,7 +11164,7 @@
         <v>0.30559999999999998</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -11176,7 +11176,7 @@
     <row r="18" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -11188,7 +11188,7 @@
     <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -11200,7 +11200,7 @@
     <row r="20" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="23"/>
       <c r="C20" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -11446,7 +11446,7 @@
     <row r="39" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
@@ -11655,10 +11655,10 @@
     </row>
     <row r="57" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B57" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
@@ -11670,7 +11670,7 @@
     <row r="58" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -11692,7 +11692,7 @@
     <row r="60" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D60" s="33">
         <v>12000000</v>
@@ -11706,7 +11706,7 @@
     <row r="61" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B61" s="16"/>
       <c r="C61" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D61" s="34">
         <v>-9000000</v>
@@ -11720,7 +11720,7 @@
     <row r="62" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="33">
         <f>D61+D60</f>
@@ -11735,7 +11735,7 @@
     <row r="63" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B63" s="16"/>
       <c r="C63" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="34">
         <v>-1100000</v>
@@ -11749,7 +11749,7 @@
     <row r="64" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B64" s="16"/>
       <c r="C64" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D64" s="33">
         <f>D63+D62</f>
@@ -11764,7 +11764,7 @@
     <row r="65" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B65" s="16"/>
       <c r="C65" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D65" s="34">
         <v>-100000</v>
@@ -11778,7 +11778,7 @@
     <row r="66" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B66" s="16"/>
       <c r="C66" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="33">
         <f>D65+D64</f>
@@ -11793,7 +11793,7 @@
     <row r="67" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B67" s="16"/>
       <c r="C67" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="34">
         <f>-D66*0.21</f>
@@ -11808,7 +11808,7 @@
     <row r="68" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="23"/>
       <c r="C68" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="35">
         <f>D67+D66</f>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="70" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -11859,7 +11859,7 @@
         <v>0.05</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -11871,7 +11871,7 @@
     <row r="73" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B73" s="16"/>
       <c r="C73" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -11883,7 +11883,7 @@
     <row r="74" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="23"/>
       <c r="C74" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
@@ -11914,7 +11914,7 @@
     </row>
     <row r="77" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B77" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -11926,7 +11926,7 @@
     </row>
     <row r="78" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B78" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -12012,13 +12012,13 @@
         <v>50</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5" s="57" t="s">
         <v>136</v>
-      </c>
-      <c r="N5" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.2">
@@ -21747,7 +21747,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>43</v>
@@ -21792,7 +21792,7 @@
         <v>9</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>43</v>
@@ -21837,7 +21837,7 @@
         <v>10</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>43</v>
@@ -21882,7 +21882,7 @@
         <v>11</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>43</v>
@@ -21927,7 +21927,7 @@
         <v>12</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>43</v>
@@ -21972,7 +21972,7 @@
         <v>13</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>43</v>
@@ -22017,7 +22017,7 @@
         <v>14</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>43</v>
@@ -22062,7 +22062,7 @@
         <v>15</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>43</v>
@@ -22107,7 +22107,7 @@
         <v>16</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>43</v>
@@ -22152,7 +22152,7 @@
         <v>17</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>43</v>
@@ -22197,7 +22197,7 @@
         <v>18</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>43</v>
@@ -22242,7 +22242,7 @@
         <v>19</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>43</v>
@@ -22827,7 +22827,7 @@
         <v>8</v>
       </c>
       <c r="E246" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>43</v>
@@ -22872,7 +22872,7 @@
         <v>9</v>
       </c>
       <c r="E247" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>43</v>
@@ -22917,7 +22917,7 @@
         <v>10</v>
       </c>
       <c r="E248" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>43</v>
@@ -22962,7 +22962,7 @@
         <v>11</v>
       </c>
       <c r="E249" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>43</v>
@@ -23007,7 +23007,7 @@
         <v>12</v>
       </c>
       <c r="E250" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>43</v>
@@ -23052,7 +23052,7 @@
         <v>13</v>
       </c>
       <c r="E251" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>43</v>
@@ -23097,7 +23097,7 @@
         <v>14</v>
       </c>
       <c r="E252" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>43</v>
@@ -23142,7 +23142,7 @@
         <v>15</v>
       </c>
       <c r="E253" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>43</v>
@@ -23187,7 +23187,7 @@
         <v>16</v>
       </c>
       <c r="E254" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>43</v>
@@ -23232,7 +23232,7 @@
         <v>17</v>
       </c>
       <c r="E255" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>43</v>
@@ -23277,7 +23277,7 @@
         <v>18</v>
       </c>
       <c r="E256" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>43</v>
@@ -23322,7 +23322,7 @@
         <v>19</v>
       </c>
       <c r="E257" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>43</v>
@@ -29417,13 +29417,13 @@
     <row r="1" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -29813,7 +29813,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="1">
         <v>1867290</v>
@@ -29824,7 +29824,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1">
         <v>698060</v>
@@ -29879,7 +29879,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1">
         <v>42138775</v>
@@ -29913,7 +29913,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>1</v>
@@ -29922,10 +29922,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -29947,7 +29947,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E4" s="1">
         <v>765320</v>
@@ -30005,7 +30005,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1">
         <v>2495835</v>
@@ -30016,7 +30016,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" s="1">
         <v>3261155</v>
@@ -30077,7 +30077,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="1">
         <v>5281280</v>
@@ -30113,7 +30113,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1">
         <v>3042960</v>
@@ -30149,7 +30149,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="1">
         <v>3151050</v>
@@ -30185,7 +30185,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" s="1">
         <v>1867290</v>
@@ -30329,7 +30329,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="1">
         <v>698060</v>
@@ -30340,7 +30340,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38" s="1">
         <v>22737725</v>
@@ -30387,7 +30387,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="1">
         <v>4664605</v>
@@ -30398,7 +30398,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1">
         <v>38877620</v>
@@ -30409,7 +30409,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="1">
         <v>42138775</v>
@@ -30446,23 +30446,23 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -30816,7 +30816,7 @@
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" s="43">
         <v>2787</v>
@@ -31097,7 +31097,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1">
         <v>1867290</v>
@@ -31131,7 +31131,7 @@
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I35" s="43">
         <v>1837</v>
@@ -31152,7 +31152,7 @@
       </c>
       <c r="G36" s="45"/>
       <c r="H36" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="43">
         <v>85784</v>
@@ -31205,7 +31205,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1">
         <v>698060</v>
@@ -31280,7 +31280,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1">
         <v>42138775</v>
@@ -31319,13 +31319,13 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C3" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.2">
@@ -31396,7 +31396,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="1">
         <v>442400</v>
@@ -31435,13 +31435,13 @@
   <sheetData>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -31501,7 +31501,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="1">
         <v>402000</v>
@@ -31754,7 +31754,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1">
         <v>228000</v>
@@ -31798,7 +31798,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C41" s="1">
         <v>9279000</v>
@@ -31820,10 +31820,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="7"/>
     </row>
@@ -32021,7 +32021,7 @@
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="76">
         <v>1095852</v>
@@ -32117,7 +32117,7 @@
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" s="76">
         <v>363618</v>
@@ -32157,7 +32157,7 @@
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" s="76">
         <v>25927818.5</v>

--- a/homeworks/CF_HW_6_20_Answer.xlsx
+++ b/homeworks/CF_HW_6_20_Answer.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFEB2FC-03E2-9F44-B726-14FF1F55B2AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D748776-8E03-9748-A7C1-099D5F835000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20500" yWindow="460" windowWidth="26260" windowHeight="27840" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27440" yWindow="540" windowWidth="20820" windowHeight="27840" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q#1-9" sheetId="46" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="10" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="133">
   <si>
     <t>Associate Name</t>
   </si>
@@ -397,27 +397,6 @@
     <t xml:space="preserve">Collections </t>
   </si>
   <si>
-    <t>Corporate Total</t>
-  </si>
-  <si>
-    <t>Litigation Total</t>
-  </si>
-  <si>
-    <t>Los Angeles Total</t>
-  </si>
-  <si>
-    <t>Estates Total</t>
-  </si>
-  <si>
-    <t>Labor Total</t>
-  </si>
-  <si>
-    <t>Tax Total</t>
-  </si>
-  <si>
-    <t>New York Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">Billable Hours </t>
   </si>
   <si>
@@ -452,9 +431,6 @@
   </si>
   <si>
     <t>Offices and Groups</t>
-  </si>
-  <si>
-    <t>Offices</t>
   </si>
   <si>
     <t>Total</t>
@@ -823,7 +799,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,7 +982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
@@ -1021,7 +996,69 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="64">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -1030,9 +1067,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
@@ -1048,27 +1082,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1116,10 +1129,10 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="general"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2000,16 +2013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>378883</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436033</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>226484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2024,8 +2037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9486900" y="419100"/>
-          <a:ext cx="5080000" cy="3098800"/>
+          <a:off x="4686300" y="338667"/>
+          <a:ext cx="5063066" cy="3422650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2808,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0"/>
-            <a:t>as a lable until refreshed the PT.  Click in the table, </a:t>
+            <a:t>as a lable until I refreshed the PT.  Click in the table, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
@@ -2821,12 +2834,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3848100" cy="749821"/>
+    <xdr:ext cx="2311400" cy="1676400"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
@@ -2840,8 +2853,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7734300" y="10515600"/>
-          <a:ext cx="3848100" cy="749821"/>
+          <a:off x="4889500" y="10528300"/>
+          <a:ext cx="2311400" cy="1676400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2869,7 +2882,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -8802,7 +8815,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C16AF6AB-B5D4-7B4D-B4B9-82FF66A79491}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C16AF6AB-B5D4-7B4D-B4B9-82FF66A79491}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
   <location ref="B2:D44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9021,10 +9034,10 @@
     <dataField name="Collections " fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="43">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="46">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9033,7 +9046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="45">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9042,13 +9055,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="44">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="43">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9058,10 +9071,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="41">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9071,10 +9084,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="39">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9098,12 +9111,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7495E70-010C-8145-A4D0-001D6F99A1EA}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B2:F44" firstHeaderRow="0" firstDataRow="1" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D2061A8-3CB8-474E-88A0-47EA7F4AB2B4}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
+  <location ref="B2:D44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="35">
         <item x="17"/>
         <item x="30"/>
@@ -9151,14 +9164,14 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField name="Offices" axis="axisRow" compact="0" outline="0" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="2"/>
@@ -9168,14 +9181,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
   </pivotFields>
   <rowFields count="3">
     <field x="3"/>
@@ -9185,14 +9198,17 @@
   <rowItems count="42">
     <i>
       <x/>
+    </i>
+    <i r="1">
       <x/>
+    </i>
+    <i r="2">
       <x v="12"/>
-    </i>
-    <i t="default" r="1">
-      <x/>
     </i>
     <i r="1">
       <x v="3"/>
+    </i>
+    <i r="2">
       <x v="15"/>
     </i>
     <i r="2">
@@ -9204,15 +9220,13 @@
     <i r="2">
       <x v="24"/>
     </i>
-    <i t="default" r="1">
-      <x v="3"/>
+    <i>
+      <x v="1"/>
     </i>
-    <i t="default">
+    <i r="1">
       <x/>
     </i>
-    <i>
-      <x v="1"/>
-      <x/>
+    <i r="2">
       <x v="7"/>
     </i>
     <i r="2">
@@ -9224,31 +9238,28 @@
     <i r="2">
       <x v="30"/>
     </i>
-    <i t="default" r="1">
-      <x/>
-    </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="2">
       <x v="18"/>
     </i>
     <i r="2">
       <x v="11"/>
     </i>
-    <i t="default" r="1">
-      <x v="1"/>
-    </i>
     <i r="1">
       <x v="2"/>
+    </i>
+    <i r="2">
       <x v="1"/>
     </i>
     <i r="2">
       <x v="2"/>
     </i>
-    <i t="default" r="1">
-      <x v="2"/>
-    </i>
     <i r="1">
       <x v="3"/>
+    </i>
+    <i r="2">
       <x v="6"/>
     </i>
     <i r="2">
@@ -9296,11 +9307,10 @@
     <i r="2">
       <x v="33"/>
     </i>
-    <i t="default" r="1">
-      <x v="3"/>
-    </i>
     <i r="1">
       <x v="4"/>
+    </i>
+    <i r="2">
       <x v="5"/>
     </i>
     <i r="2">
@@ -9308,12 +9318,6 @@
     </i>
     <i r="2">
       <x v="3"/>
-    </i>
-    <i t="default" r="1">
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -9334,11 +9338,11 @@
     <dataField name="Billings " fld="8" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Collections " fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="7">
-    <format dxfId="33">
+  <formats count="10">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9347,7 +9351,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="4">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9356,16 +9360,39 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="5">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    <format dxfId="6">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="8">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9389,233 +9416,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2213BE48-5712-EA47-896B-11A4E92B87AF}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="H3:I36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField name="Associate" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="35">
-        <item x="17"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="28"/>
-        <item x="8"/>
-        <item x="29"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="25"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="22"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item m="1" x="33"/>
-        <item x="12"/>
-        <item m="1" x="32"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="20"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Billable Hours " fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9064670B-CAE1-664B-8FF0-E1A9EBEB2044}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9064670B-CAE1-664B-8FF0-E1A9EBEB2044}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Offices and Groups">
   <location ref="B3:E45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -9847,10 +9648,10 @@
     <dataField name="Billable Hours " fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="26">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="29">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9859,7 +9660,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9868,7 +9669,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9877,10 +9678,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="26">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -9891,7 +9692,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9900,10 +9701,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="23">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -9914,7 +9715,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9930,8 +9731,234 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2213BE48-5712-EA47-896B-11A4E92B87AF}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="H3:I36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name="Associate" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="35">
+        <item x="17"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="29"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="25"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="22"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item m="1" x="33"/>
+        <item x="12"/>
+        <item m="1" x="32"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" numFmtId="166" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="166" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Billable Hours " fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="37">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8624E65-B12E-F24B-ADD4-E511061AC05F}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F8624E65-B12E-F24B-ADD4-E511061AC05F}" name="PivotTable6" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:E10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10070,10 +10097,10 @@
     <dataField name="Collections " fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="19">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10082,7 +10109,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10105,7 +10132,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B579022D-1ADB-9D4F-A857-5A32D276A2F0}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Office and Groups">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B579022D-1ADB-9D4F-A857-5A32D276A2F0}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Office and Groups">
   <location ref="B47:C89" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10321,13 +10348,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name=" Profit" fld="12" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name=" Profit" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="2">
+  <formats count="4">
+    <format dxfId="14">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10336,7 +10363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10344,6 +10371,9 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -10359,7 +10389,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03BF4379-F7AD-5643-B512-443AC26281C3}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Associate">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03BF4379-F7AD-5643-B512-443AC26281C3}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Associate">
   <location ref="B8:D41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -10540,13 +10570,13 @@
   </colItems>
   <dataFields count="2">
     <dataField name=" Salary" fld="11" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name=" Profit" fld="12" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name=" Profit" fld="12" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="6">
+    <format dxfId="17">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10556,7 +10586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="15">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10565,7 +10595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="1">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -10657,28 +10687,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C5:O389" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="C5:O389" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="C5:O389" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month No" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Month" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Associate Name" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Office" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Department" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Billable Hours" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nonbillable Hours" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Billing Rate" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Billings" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month No" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Month" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Associate Name" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Office" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Department" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Billable Hours" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nonbillable Hours" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Billing Rate" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Billings" dataDxfId="52">
       <calculatedColumnFormula>Billings!$H6*Billings!$J6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Collections" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Billing - Collect" dataDxfId="46">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Collections" dataDxfId="51"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Billing - Collect" dataDxfId="50">
       <calculatedColumnFormula>Billings!$K6-Billings!$L6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{134D0BEA-7C67-AA4E-9D16-0A9C4F163DEC}" name="Salary" dataDxfId="45">
+    <tableColumn id="12" xr3:uid="{134D0BEA-7C67-AA4E-9D16-0A9C4F163DEC}" name="Salary" dataDxfId="49">
       <calculatedColumnFormula>([1]!Table1[[#This Row],[Billing Rate]]*0.5*100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{841EE193-7762-A94E-8B56-E6AA86783D60}" name="Profit" dataDxfId="44">
+    <tableColumn id="13" xr3:uid="{841EE193-7762-A94E-8B56-E6AA86783D60}" name="Profit" dataDxfId="48">
       <calculatedColumnFormula>Table1[[#This Row],[Collections]]-Table1[[#This Row],[Salary]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10975,8 +11005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7308F52-8E89-BF44-9C41-F5679E61FB3C}">
   <dimension ref="B1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -10999,7 +11029,7 @@
     </row>
     <row r="3" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C3" s="11"/>
       <c r="F3" s="9"/>
@@ -11164,7 +11194,7 @@
         <v>0.30559999999999998</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -11176,7 +11206,7 @@
     <row r="18" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -11188,7 +11218,7 @@
     <row r="19" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -11200,7 +11230,7 @@
     <row r="20" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="23"/>
       <c r="C20" s="20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -11446,7 +11476,7 @@
     <row r="39" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
@@ -11655,7 +11685,7 @@
     </row>
     <row r="57" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B57" s="32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>93</v>
@@ -11871,7 +11901,7 @@
     <row r="73" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B73" s="16"/>
       <c r="C73" s="17" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -11958,8 +11988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C5:O432"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -12012,13 +12042,13 @@
         <v>50</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N5" s="57" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O5" s="57" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.2">
@@ -21747,7 +21777,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>43</v>
@@ -21792,7 +21822,7 @@
         <v>9</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>43</v>
@@ -21837,7 +21867,7 @@
         <v>10</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>43</v>
@@ -21882,7 +21912,7 @@
         <v>11</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>43</v>
@@ -21927,7 +21957,7 @@
         <v>12</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>43</v>
@@ -21972,7 +22002,7 @@
         <v>13</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>43</v>
@@ -22017,7 +22047,7 @@
         <v>14</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>43</v>
@@ -22062,7 +22092,7 @@
         <v>15</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>43</v>
@@ -22107,7 +22137,7 @@
         <v>16</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>43</v>
@@ -22152,7 +22182,7 @@
         <v>17</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>43</v>
@@ -22197,7 +22227,7 @@
         <v>18</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>43</v>
@@ -22242,7 +22272,7 @@
         <v>19</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F233" s="4" t="s">
         <v>43</v>
@@ -22827,7 +22857,7 @@
         <v>8</v>
       </c>
       <c r="E246" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>43</v>
@@ -22872,7 +22902,7 @@
         <v>9</v>
       </c>
       <c r="E247" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>43</v>
@@ -22917,7 +22947,7 @@
         <v>10</v>
       </c>
       <c r="E248" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>43</v>
@@ -22962,7 +22992,7 @@
         <v>11</v>
       </c>
       <c r="E249" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>43</v>
@@ -23007,7 +23037,7 @@
         <v>12</v>
       </c>
       <c r="E250" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>43</v>
@@ -23052,7 +23082,7 @@
         <v>13</v>
       </c>
       <c r="E251" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>43</v>
@@ -23097,7 +23127,7 @@
         <v>14</v>
       </c>
       <c r="E252" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>43</v>
@@ -23142,7 +23172,7 @@
         <v>15</v>
       </c>
       <c r="E253" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>43</v>
@@ -23187,7 +23217,7 @@
         <v>16</v>
       </c>
       <c r="E254" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>43</v>
@@ -23232,7 +23262,7 @@
         <v>17</v>
       </c>
       <c r="E255" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>43</v>
@@ -23277,7 +23307,7 @@
         <v>18</v>
       </c>
       <c r="E256" s="50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>43</v>
@@ -23322,7 +23352,7 @@
         <v>19</v>
       </c>
       <c r="E257" s="51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>43</v>
@@ -29405,7 +29435,7 @@
   <dimension ref="B1:D44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -29417,7 +29447,7 @@
     <row r="1" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="74" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2" s="75" t="s">
         <v>111</v>
@@ -29813,7 +29843,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1">
         <v>1867290</v>
@@ -29824,7 +29854,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1">
         <v>698060</v>
@@ -29896,525 +29926,493 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:I44"/>
+  <dimension ref="B1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
+    <row r="1" spans="2:4" ht="19" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="53" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>3261155</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2687058</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1">
+        <v>765320</v>
+      </c>
+      <c r="D4" s="1">
+        <v>569194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1">
+      <c r="C5" s="1">
         <v>765320</v>
       </c>
-      <c r="F3" s="1">
+      <c r="D5" s="1">
         <v>569194</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="1">
-        <v>765320</v>
-      </c>
-      <c r="F4" s="1">
-        <v>569194</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" s="1">
+        <v>2495835</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2117864</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="C7" s="1">
         <v>694800</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D7" s="1">
         <v>623790</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1">
+      <c r="C8" s="1">
         <v>610560</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D8" s="1">
         <v>530144</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1">
+      <c r="C9" s="1">
         <v>598400</v>
       </c>
-      <c r="F7" s="1">
+      <c r="D9" s="1">
         <v>515542.5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1">
+      <c r="C10" s="1">
         <v>592075</v>
       </c>
-      <c r="F8" s="1">
+      <c r="D10" s="1">
         <v>448387.5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2495835</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2117864</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3261155</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2687058</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>38877620</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32519760.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" s="1">
+        <v>5281280</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4422262</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="1">
+      <c r="C13" s="1">
         <v>1719260</v>
       </c>
-      <c r="F11" s="1">
+      <c r="D13" s="1">
         <v>1430464</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1">
+      <c r="C14" s="1">
         <v>1477840</v>
       </c>
-      <c r="F12" s="1">
+      <c r="D14" s="1">
         <v>1236248</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1">
+      <c r="C15" s="1">
         <v>1056020</v>
       </c>
-      <c r="F13" s="1">
+      <c r="D15" s="1">
         <v>883234</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1">
+      <c r="C16" s="1">
         <v>1028160</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D16" s="1">
         <v>872316</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5281280</v>
-      </c>
-      <c r="F15" s="1">
-        <v>4422262</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C17" s="1">
+        <v>3042960</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2454840</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="1">
+      <c r="C18" s="1">
         <v>1575180</v>
       </c>
-      <c r="F16" s="1">
+      <c r="D18" s="1">
         <v>1243998</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="1">
+      <c r="C19" s="1">
         <v>1467780</v>
       </c>
-      <c r="F17" s="1">
+      <c r="D19" s="1">
         <v>1210842</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3042960</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2454840</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" s="1">
+        <v>3151050</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2789151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1">
+      <c r="C21" s="1">
         <v>1764730</v>
       </c>
-      <c r="F19" s="1">
+      <c r="D21" s="1">
         <v>1614731</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="1">
+      <c r="C22" s="1">
         <v>1386320</v>
       </c>
-      <c r="F20" s="1">
+      <c r="D22" s="1">
         <v>1174420</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3151050</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2789151</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" s="1">
+        <v>22737725</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18969454</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1">
+      <c r="C24" s="1">
         <v>1775000</v>
       </c>
-      <c r="F22" s="1">
+      <c r="D24" s="1">
         <v>1553750</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="1">
+      <c r="C25" s="1">
         <v>1837140</v>
       </c>
-      <c r="F23" s="1">
+      <c r="D25" s="1">
         <v>1542273</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="I25" s="42"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1">
         <v>1867290</v>
       </c>
-      <c r="F24" s="1">
+      <c r="D26" s="1">
         <v>1497852</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1">
+      <c r="C27" s="1">
         <v>1706240</v>
       </c>
-      <c r="F25" s="1">
+      <c r="D27" s="1">
         <v>1485644</v>
       </c>
-      <c r="I25" s="42"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="1">
+      <c r="C28" s="1">
         <v>1620285</v>
       </c>
-      <c r="F26" s="1">
+      <c r="D28" s="1">
         <v>1357213.5</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="1">
+      <c r="C29" s="1">
         <v>1525340</v>
       </c>
-      <c r="F27" s="1">
+      <c r="D29" s="1">
         <v>1316785</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1">
+      <c r="C30" s="1">
         <v>1515240</v>
       </c>
-      <c r="F28" s="1">
+      <c r="D30" s="1">
         <v>1265814</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="1">
+      <c r="C31" s="1">
         <v>1463700</v>
       </c>
-      <c r="F29" s="1">
+      <c r="D31" s="1">
         <v>1186605</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1">
+      <c r="C32" s="1">
         <v>1340000</v>
       </c>
-      <c r="F30" s="1">
+      <c r="D32" s="1">
         <v>1134250</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="1">
+      <c r="C33" s="1">
         <v>1293600</v>
       </c>
-      <c r="F31" s="1">
+      <c r="D33" s="1">
         <v>1110816</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="1">
+      <c r="C34" s="1">
         <v>1300880</v>
       </c>
-      <c r="F32" s="1">
+      <c r="D34" s="1">
         <v>1080310</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="1">
+      <c r="C35" s="1">
         <v>1342350</v>
       </c>
-      <c r="F33" s="1">
+      <c r="D35" s="1">
         <v>1076492.5</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D34" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="1">
+      <c r="C36" s="1">
         <v>1222650</v>
       </c>
-      <c r="F34" s="1">
+      <c r="D36" s="1">
         <v>1015695</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="1">
+      <c r="C37" s="1">
         <v>1211310</v>
       </c>
-      <c r="F35" s="1">
+      <c r="D37" s="1">
         <v>911170</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="1">
+      <c r="C38" s="1">
         <v>1018640</v>
       </c>
-      <c r="F36" s="1">
+      <c r="D38" s="1">
         <v>843166</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="1">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1">
         <v>698060</v>
       </c>
-      <c r="F37" s="1">
+      <c r="D39" s="1">
         <v>591618</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="1">
-        <v>22737725</v>
-      </c>
-      <c r="F38" s="1">
-        <v>18969454</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C40" s="1">
+        <v>4664605</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3884053.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="1">
+      <c r="C41" s="1">
         <v>1869970</v>
       </c>
-      <c r="F39" s="1">
+      <c r="D41" s="1">
         <v>1522374</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="1">
+      <c r="C42" s="1">
         <v>1408110</v>
       </c>
-      <c r="F40" s="1">
+      <c r="D42" s="1">
         <v>1199877</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="1">
+      <c r="C43" s="1">
         <v>1386525</v>
       </c>
-      <c r="F41" s="1">
+      <c r="D43" s="1">
         <v>1161802.5</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4664605</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3884053.5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="1">
-        <v>38877620</v>
-      </c>
-      <c r="F43" s="1">
-        <v>32519760.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="1">
+      <c r="C44" s="1">
         <v>42138775</v>
       </c>
-      <c r="F44" s="1">
+      <c r="D44" s="1">
         <v>35206818.5</v>
       </c>
     </row>
@@ -30428,8 +30426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -30446,7 +30444,7 @@
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>111</v>
@@ -30455,14 +30453,14 @@
         <v>112</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="46" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -30816,7 +30814,7 @@
       </c>
       <c r="G20" s="45"/>
       <c r="H20" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I20" s="43">
         <v>2787</v>
@@ -31097,7 +31095,7 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1">
         <v>1867290</v>
@@ -31131,7 +31129,7 @@
       </c>
       <c r="G35" s="45"/>
       <c r="H35" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I35" s="43">
         <v>1837</v>
@@ -31205,7 +31203,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1">
         <v>698060</v>
@@ -31280,7 +31278,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1">
         <v>42138775</v>
@@ -31303,8 +31301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C3:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" zoomScale="92" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -31312,7 +31310,7 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="2.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
@@ -31422,26 +31420,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A80EA3-17EE-BB4B-821D-DFFF85EDF653}">
   <dimension ref="A8:I89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="46" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -31451,7 +31449,7 @@
       <c r="C9" s="1">
         <v>366000</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="1">
         <v>1248731</v>
       </c>
     </row>
@@ -31462,7 +31460,7 @@
       <c r="C10" s="1">
         <v>375000</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="1">
         <v>1178750</v>
       </c>
     </row>
@@ -31473,7 +31471,7 @@
       <c r="C11" s="1">
         <v>402000</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="1">
         <v>1140273</v>
       </c>
     </row>
@@ -31484,7 +31482,7 @@
       <c r="C12" s="1">
         <v>402000</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="1">
         <v>1120374</v>
       </c>
     </row>
@@ -31495,18 +31493,18 @@
       <c r="C13" s="1">
         <v>372000</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="1">
         <v>1113644</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1">
         <v>402000</v>
       </c>
-      <c r="D14" s="76">
+      <c r="D14" s="1">
         <v>1095852</v>
       </c>
     </row>
@@ -31517,7 +31515,7 @@
       <c r="C15" s="1">
         <v>372000</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="1">
         <v>1058464</v>
       </c>
     </row>
@@ -31528,7 +31526,7 @@
       <c r="C16" s="1">
         <v>327000</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="1">
         <v>1030213.5</v>
       </c>
     </row>
@@ -31539,7 +31537,7 @@
       <c r="C17" s="1">
         <v>318000</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="1">
         <v>998785</v>
       </c>
     </row>
@@ -31550,7 +31548,7 @@
       <c r="C18" s="1">
         <v>324000</v>
       </c>
-      <c r="D18" s="76">
+      <c r="D18" s="1">
         <v>941814</v>
       </c>
     </row>
@@ -31561,7 +31559,7 @@
       <c r="C19" s="1">
         <v>312000</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="1">
         <v>924248</v>
       </c>
     </row>
@@ -31572,7 +31570,7 @@
       <c r="C20" s="1">
         <v>324000</v>
       </c>
-      <c r="D20" s="76">
+      <c r="D20" s="1">
         <v>919998</v>
       </c>
     </row>
@@ -31583,7 +31581,7 @@
       <c r="C21" s="1">
         <v>306000</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="1">
         <v>904842</v>
       </c>
     </row>
@@ -31594,7 +31592,7 @@
       <c r="C22" s="1">
         <v>306000</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="1">
         <v>893877</v>
       </c>
     </row>
@@ -31605,7 +31603,7 @@
       <c r="C23" s="1">
         <v>285000</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="1">
         <v>876802.5</v>
       </c>
     </row>
@@ -31616,7 +31614,7 @@
       <c r="C24" s="1">
         <v>315000</v>
       </c>
-      <c r="D24" s="76">
+      <c r="D24" s="1">
         <v>871605</v>
       </c>
     </row>
@@ -31627,7 +31625,7 @@
       <c r="C25" s="1">
         <v>312000</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="1">
         <v>862420</v>
       </c>
     </row>
@@ -31638,7 +31636,7 @@
       <c r="C26" s="1">
         <v>300000</v>
       </c>
-      <c r="D26" s="76">
+      <c r="D26" s="1">
         <v>834250</v>
       </c>
     </row>
@@ -31649,7 +31647,7 @@
       <c r="C27" s="1">
         <v>288000</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="1">
         <v>822816</v>
       </c>
     </row>
@@ -31660,7 +31658,7 @@
       <c r="C28" s="1">
         <v>276000</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="1">
         <v>804310</v>
       </c>
     </row>
@@ -31671,7 +31669,7 @@
       <c r="C29" s="1">
         <v>285000</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="1">
         <v>791492.5</v>
       </c>
     </row>
@@ -31682,7 +31680,7 @@
       <c r="C30" s="1">
         <v>270000</v>
       </c>
-      <c r="D30" s="76">
+      <c r="D30" s="1">
         <v>745695</v>
       </c>
     </row>
@@ -31693,7 +31691,7 @@
       <c r="C31" s="1">
         <v>216000</v>
       </c>
-      <c r="D31" s="76">
+      <c r="D31" s="1">
         <v>656316</v>
       </c>
     </row>
@@ -31704,7 +31702,7 @@
       <c r="C32" s="1">
         <v>228000</v>
       </c>
-      <c r="D32" s="76">
+      <c r="D32" s="1">
         <v>655234</v>
       </c>
     </row>
@@ -31715,7 +31713,7 @@
       <c r="C33" s="1">
         <v>258000</v>
       </c>
-      <c r="D33" s="76">
+      <c r="D33" s="1">
         <v>653170</v>
       </c>
     </row>
@@ -31726,7 +31724,7 @@
       <c r="C34" s="1">
         <v>204000</v>
       </c>
-      <c r="D34" s="76">
+      <c r="D34" s="1">
         <v>639166</v>
       </c>
     </row>
@@ -31737,7 +31735,7 @@
       <c r="C35" s="1">
         <v>180000</v>
       </c>
-      <c r="D35" s="76">
+      <c r="D35" s="1">
         <v>443790</v>
       </c>
     </row>
@@ -31748,18 +31746,18 @@
       <c r="C36" s="1">
         <v>204000</v>
       </c>
-      <c r="D36" s="76">
+      <c r="D36" s="1">
         <v>365194</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B37" s="40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1">
         <v>228000</v>
       </c>
-      <c r="D37" s="76">
+      <c r="D37" s="1">
         <v>363618</v>
       </c>
     </row>
@@ -31770,7 +31768,7 @@
       <c r="C38" s="1">
         <v>165000</v>
       </c>
-      <c r="D38" s="76">
+      <c r="D38" s="1">
         <v>350542.5</v>
       </c>
     </row>
@@ -31781,7 +31779,7 @@
       <c r="C39" s="1">
         <v>192000</v>
       </c>
-      <c r="D39" s="76">
+      <c r="D39" s="1">
         <v>338144</v>
       </c>
     </row>
@@ -31792,7 +31790,7 @@
       <c r="C40" s="1">
         <v>165000</v>
       </c>
-      <c r="D40" s="76">
+      <c r="D40" s="1">
         <v>283387.5</v>
       </c>
     </row>
@@ -31803,27 +31801,27 @@
       <c r="C41" s="1">
         <v>9279000</v>
       </c>
-      <c r="D41" s="76">
+      <c r="D41" s="1">
         <v>25927818.5</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B47" s="46" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F47" s="7"/>
     </row>
@@ -31831,7 +31829,7 @@
       <c r="B48" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="1">
         <v>1781058</v>
       </c>
     </row>
@@ -31839,7 +31837,7 @@
       <c r="B49" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="1">
         <v>365194</v>
       </c>
     </row>
@@ -31847,7 +31845,7 @@
       <c r="B50" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="1">
         <v>365194</v>
       </c>
     </row>
@@ -31855,7 +31853,7 @@
       <c r="B51" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="1">
         <v>1415864</v>
       </c>
     </row>
@@ -31863,7 +31861,7 @@
       <c r="B52" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="1">
         <v>443790</v>
       </c>
     </row>
@@ -31871,7 +31869,7 @@
       <c r="B53" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="1">
         <v>350542.5</v>
       </c>
     </row>
@@ -31879,7 +31877,7 @@
       <c r="B54" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="1">
         <v>338144</v>
       </c>
     </row>
@@ -31887,7 +31885,7 @@
       <c r="B55" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="1">
         <v>283387.5</v>
       </c>
     </row>
@@ -31895,7 +31893,7 @@
       <c r="B56" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="1">
         <v>24146760.5</v>
       </c>
     </row>
@@ -31903,7 +31901,7 @@
       <c r="B57" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="76">
+      <c r="C57" s="1">
         <v>3294262</v>
       </c>
     </row>
@@ -31911,7 +31909,7 @@
       <c r="B58" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="1">
         <v>1058464</v>
       </c>
     </row>
@@ -31919,7 +31917,7 @@
       <c r="B59" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="1">
         <v>924248</v>
       </c>
     </row>
@@ -31927,7 +31925,7 @@
       <c r="B60" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="1">
         <v>656316</v>
       </c>
     </row>
@@ -31935,7 +31933,7 @@
       <c r="B61" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="76">
+      <c r="C61" s="1">
         <v>655234</v>
       </c>
     </row>
@@ -31943,7 +31941,7 @@
       <c r="B62" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="1">
         <v>1824840</v>
       </c>
     </row>
@@ -31951,7 +31949,7 @@
       <c r="B63" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="76">
+      <c r="C63" s="1">
         <v>919998</v>
       </c>
     </row>
@@ -31959,7 +31957,7 @@
       <c r="B64" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="1">
         <v>904842</v>
       </c>
     </row>
@@ -31967,7 +31965,7 @@
       <c r="B65" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="76">
+      <c r="C65" s="1">
         <v>2111151</v>
       </c>
     </row>
@@ -31975,7 +31973,7 @@
       <c r="B66" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="76">
+      <c r="C66" s="1">
         <v>1248731</v>
       </c>
     </row>
@@ -31983,7 +31981,7 @@
       <c r="B67" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="76">
+      <c r="C67" s="1">
         <v>862420</v>
       </c>
     </row>
@@ -31991,7 +31989,7 @@
       <c r="B68" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="76">
+      <c r="C68" s="1">
         <v>14025454</v>
       </c>
     </row>
@@ -31999,7 +31997,7 @@
       <c r="B69" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="1">
         <v>1178750</v>
       </c>
     </row>
@@ -32007,7 +32005,7 @@
       <c r="B70" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="1">
         <v>1140273</v>
       </c>
     </row>
@@ -32015,15 +32013,15 @@
       <c r="B71" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="76">
+      <c r="C71" s="1">
         <v>1113644</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="76">
+        <v>122</v>
+      </c>
+      <c r="C72" s="1">
         <v>1095852</v>
       </c>
     </row>
@@ -32031,7 +32029,7 @@
       <c r="B73" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="76">
+      <c r="C73" s="1">
         <v>1030213.5</v>
       </c>
     </row>
@@ -32039,7 +32037,7 @@
       <c r="B74" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="1">
         <v>998785</v>
       </c>
     </row>
@@ -32047,7 +32045,7 @@
       <c r="B75" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="76">
+      <c r="C75" s="1">
         <v>941814</v>
       </c>
     </row>
@@ -32055,7 +32053,7 @@
       <c r="B76" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="76">
+      <c r="C76" s="1">
         <v>871605</v>
       </c>
     </row>
@@ -32063,7 +32061,7 @@
       <c r="B77" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="76">
+      <c r="C77" s="1">
         <v>834250</v>
       </c>
     </row>
@@ -32071,7 +32069,7 @@
       <c r="B78" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="76">
+      <c r="C78" s="1">
         <v>822816</v>
       </c>
     </row>
@@ -32079,7 +32077,7 @@
       <c r="B79" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C79" s="76">
+      <c r="C79" s="1">
         <v>804310</v>
       </c>
     </row>
@@ -32087,7 +32085,7 @@
       <c r="B80" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="76">
+      <c r="C80" s="1">
         <v>791492.5</v>
       </c>
     </row>
@@ -32095,7 +32093,7 @@
       <c r="B81" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C81" s="76">
+      <c r="C81" s="1">
         <v>745695</v>
       </c>
     </row>
@@ -32103,7 +32101,7 @@
       <c r="B82" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C82" s="76">
+      <c r="C82" s="1">
         <v>653170</v>
       </c>
     </row>
@@ -32111,15 +32109,15 @@
       <c r="B83" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="76">
+      <c r="C83" s="1">
         <v>639166</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="76">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1">
         <v>363618</v>
       </c>
     </row>
@@ -32127,7 +32125,7 @@
       <c r="B85" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C85" s="76">
+      <c r="C85" s="1">
         <v>2891053.5</v>
       </c>
     </row>
@@ -32135,7 +32133,7 @@
       <c r="B86" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C86" s="76">
+      <c r="C86" s="1">
         <v>1120374</v>
       </c>
     </row>
@@ -32143,7 +32141,7 @@
       <c r="B87" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="76">
+      <c r="C87" s="1">
         <v>893877</v>
       </c>
     </row>
@@ -32151,7 +32149,7 @@
       <c r="B88" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="76">
+      <c r="C88" s="1">
         <v>876802.5</v>
       </c>
     </row>
@@ -32159,7 +32157,7 @@
       <c r="B89" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C89" s="76">
+      <c r="C89" s="1">
         <v>25927818.5</v>
       </c>
     </row>
